--- a/results/comparaison/WM/retardance/median_raw_data.xlsx
+++ b/results/comparaison/WM/retardance/median_raw_data.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CS7"/>
+  <dimension ref="A1:CW7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:97">
+    <row r="1" spans="1:101">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -661,896 +661,1754 @@
       <c r="CS1" s="1">
         <v>95</v>
       </c>
+      <c r="CT1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:97">
+    <row r="2" spans="1:101">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>40.8777084505426</v>
+        <v>40.08842616069751</v>
       </c>
       <c r="C2">
-        <v>31.63161296949532</v>
+        <v>15.55987580569433</v>
       </c>
       <c r="D2">
-        <v>20.52392750911928</v>
+        <v>31.4069840692846</v>
       </c>
       <c r="E2">
-        <v>19.65546963257096</v>
+        <v>19.6341901055563</v>
       </c>
       <c r="F2">
-        <v>35.08068435850609</v>
+        <v>18.73300482967598</v>
       </c>
       <c r="G2">
-        <v>14.47736722491728</v>
+        <v>15.70058475577701</v>
       </c>
       <c r="H2">
-        <v>22.54287371228953</v>
+        <v>34.26975515102655</v>
       </c>
       <c r="I2">
-        <v>32.29944876519723</v>
+        <v>14.07636257064767</v>
       </c>
       <c r="J2">
-        <v>32.37366326380607</v>
+        <v>21.59327806537462</v>
       </c>
       <c r="K2">
-        <v>15.15775543906825</v>
+        <v>31.58138360770203</v>
       </c>
       <c r="L2">
-        <v>22.65551214286195</v>
+        <v>32.11355603225377</v>
       </c>
       <c r="M2">
-        <v>35.9361868409167</v>
+        <v>35.33051749777701</v>
       </c>
       <c r="N2">
-        <v>24.92817539936297</v>
+        <v>14.37959358777939</v>
       </c>
       <c r="O2">
-        <v>15.42231385349479</v>
+        <v>22.49391224493623</v>
       </c>
       <c r="P2">
-        <v>20.20102016663284</v>
+        <v>24.090032175642</v>
       </c>
       <c r="Q2">
-        <v>25.66799815355098</v>
+        <v>14.43019017487198</v>
       </c>
       <c r="R2">
-        <v>31.35067111310926</v>
+        <v>19.045113662185</v>
       </c>
       <c r="S2">
-        <v>18.55307375658269</v>
+        <v>11.50223810713632</v>
       </c>
       <c r="T2">
-        <v>17.41408967926068</v>
+        <v>16.52175281182279</v>
       </c>
       <c r="U2">
-        <v>12.86519204270315</v>
+        <v>12.32640104654069</v>
       </c>
       <c r="V2">
-        <v>44.39527771805583</v>
+        <v>44.3148407703158</v>
       </c>
       <c r="W2">
-        <v>27.34955926885249</v>
+        <v>26.45005351585458</v>
       </c>
       <c r="X2">
-        <v>25.18030574451444</v>
+        <v>25.12808481061022</v>
       </c>
       <c r="Y2">
-        <v>21.26845503552338</v>
+        <v>20.17952844120557</v>
       </c>
       <c r="Z2">
-        <v>14.42478009004521</v>
+        <v>13.35614957477907</v>
       </c>
       <c r="AA2">
-        <v>28.58613573747057</v>
+        <v>17.95355183156236</v>
       </c>
       <c r="AB2">
-        <v>25.51323491039565</v>
+        <v>21.0902020439707</v>
       </c>
       <c r="AC2">
-        <v>36.73163242071288</v>
+        <v>10.96143606871185</v>
       </c>
       <c r="AD2">
-        <v>37.39043648866</v>
+        <v>13.84235371871198</v>
       </c>
       <c r="AE2">
-        <v>33.06030932249332</v>
+        <v>18.8971398018092</v>
       </c>
       <c r="AF2">
-        <v>20.27802069343196</v>
+        <v>21.13414272425443</v>
       </c>
       <c r="AG2">
-        <v>7.739466278741789</v>
+        <v>16.68077938636602</v>
       </c>
       <c r="AH2">
-        <v>24.45487929358917</v>
+        <v>15.80957890454851</v>
       </c>
       <c r="AI2">
-        <v>11.52495001878951</v>
+        <v>19.90828174083781</v>
       </c>
       <c r="AJ2">
-        <v>17.76811550997345</v>
+        <v>25.43330315862624</v>
       </c>
       <c r="AK2">
-        <v>19.03637948446343</v>
+        <v>32.50809901363369</v>
       </c>
       <c r="AL2">
-        <v>11.35769177948086</v>
+        <v>21.45042134039417</v>
       </c>
       <c r="AM2">
-        <v>19.86648756133713</v>
+        <v>19.31153817346752</v>
       </c>
       <c r="AN2">
-        <v>17.66196665543409</v>
+        <v>24.04455519946886</v>
       </c>
       <c r="AO2">
-        <v>14.82167636490298</v>
+        <v>17.48267275364334</v>
       </c>
       <c r="AP2">
-        <v>24.31052791235743</v>
+        <v>19.78690037803696</v>
       </c>
       <c r="AQ2">
-        <v>40.83632183718086</v>
+        <v>41.15707983612418</v>
       </c>
       <c r="AR2">
-        <v>33.14639854828318</v>
+        <v>18.70564575102208</v>
       </c>
       <c r="AS2">
-        <v>44.20426955191351</v>
+        <v>4.000930234659931</v>
       </c>
       <c r="AT2">
-        <v>15.43203510238803</v>
+        <v>22.51841281408317</v>
       </c>
       <c r="AU2">
-        <v>21.87027403918515</v>
+        <v>15.67090335345332</v>
       </c>
       <c r="AV2">
-        <v>17.27257852657434</v>
+        <v>44.82974769615403</v>
       </c>
       <c r="AW2">
-        <v>16.29755097024783</v>
+        <v>29.1995283204026</v>
       </c>
       <c r="AX2">
-        <v>20.64115635064888</v>
+        <v>20.47148972794362</v>
       </c>
       <c r="AY2">
-        <v>41.92213767921265</v>
+        <v>15.17034053295356</v>
       </c>
       <c r="AZ2">
-        <v>31.21976847471472</v>
+        <v>17.97237009452582</v>
       </c>
       <c r="BA2">
-        <v>18.74370235317638</v>
+        <v>15.94426551825939</v>
       </c>
       <c r="BB2">
-        <v>9.439188856421699</v>
+        <v>7.631916612682136</v>
       </c>
       <c r="BC2">
-        <v>34.51737181574289</v>
+        <v>48.72650602479301</v>
       </c>
       <c r="BD2">
-        <v>14.8867656190254</v>
+        <v>40.03788208458278</v>
       </c>
       <c r="BE2">
-        <v>18.4886469231698</v>
+        <v>22.20412045794474</v>
       </c>
       <c r="BF2">
-        <v>20.05654573794314</v>
+        <v>16.05922673922701</v>
       </c>
       <c r="BG2">
-        <v>40.75696289301448</v>
+        <v>18.04855886778517</v>
       </c>
       <c r="BH2">
-        <v>18.82723570609452</v>
+        <v>12.57332127660949</v>
       </c>
       <c r="BI2">
-        <v>11.50728309806435</v>
+        <v>32.28679145907671</v>
       </c>
       <c r="BJ2">
-        <v>38.06942320580092</v>
+        <v>39.01826584581361</v>
       </c>
       <c r="BK2">
-        <v>9.05485310833015</v>
+        <v>16.35293570760931</v>
       </c>
       <c r="BL2">
-        <v>41.56890208401445</v>
+        <v>17.41285996974204</v>
       </c>
       <c r="BM2">
-        <v>22.2659679130258</v>
+        <v>35.95011203239186</v>
       </c>
       <c r="BN2">
-        <v>32.40049634388738</v>
+        <v>27.11402476327116</v>
       </c>
       <c r="BO2">
-        <v>16.97470869336937</v>
+        <v>14.01455142934869</v>
       </c>
       <c r="BP2">
-        <v>31.57248810105365</v>
+        <v>6.271562642499286</v>
       </c>
       <c r="BQ2">
-        <v>13.88348536223548</v>
+        <v>38.88538256657988</v>
       </c>
       <c r="BR2">
-        <v>38.75098432547168</v>
+        <v>28.68306758048565</v>
       </c>
       <c r="BS2">
-        <v>32.64556965665446</v>
+        <v>9.477613147707412</v>
       </c>
       <c r="BT2">
-        <v>15.96756923451611</v>
+        <v>13.65027898777426</v>
       </c>
       <c r="BU2">
-        <v>12.03107625350047</v>
+        <v>24.23659790292593</v>
       </c>
       <c r="BV2">
-        <v>25.15629755161309</v>
+        <v>33.78469584595164</v>
       </c>
       <c r="BW2">
-        <v>26.32612725037397</v>
+        <v>10.08207370816358</v>
       </c>
       <c r="BX2">
-        <v>41.07209066584289</v>
+        <v>26.78092013454893</v>
       </c>
       <c r="BY2">
-        <v>21.13351891410313</v>
+        <v>4.821574542558187</v>
       </c>
       <c r="BZ2">
-        <v>19.69185146865292</v>
+        <v>29.27614580943441</v>
       </c>
       <c r="CA2">
-        <v>13.39835636949655</v>
+        <v>19.58611358886179</v>
       </c>
       <c r="CB2">
-        <v>25.03803995068313</v>
+        <v>4.381217701043342</v>
       </c>
       <c r="CC2">
-        <v>25.18614283219858</v>
+        <v>17.54976585235075</v>
       </c>
       <c r="CD2">
-        <v>11.0033142606952</v>
+        <v>8.027110720658913</v>
       </c>
       <c r="CE2">
-        <v>9.935513898913758</v>
+        <v>13.98382272310865</v>
       </c>
       <c r="CF2">
-        <v>23.02929561703579</v>
+        <v>5.423481917226491</v>
       </c>
       <c r="CG2">
-        <v>21.74891067876352</v>
+        <v>2.046867076279575</v>
       </c>
       <c r="CH2">
-        <v>15.6073669966482</v>
+        <v>18.19884714647726</v>
       </c>
       <c r="CI2">
-        <v>18.62723150597225</v>
+        <v>13.17398359625875</v>
       </c>
       <c r="CJ2">
-        <v>21.90912140448043</v>
+        <v>10.94080078060923</v>
       </c>
       <c r="CK2">
-        <v>9.584318791101175</v>
+        <v>10.91246049381421</v>
       </c>
       <c r="CL2">
-        <v>10.52642340889851</v>
+        <v>14.46160052614831</v>
       </c>
       <c r="CM2">
-        <v>7.702919940366933</v>
+        <v>3.294912607810566</v>
       </c>
       <c r="CN2">
-        <v>16.45630006023874</v>
+        <v>4.786425956267166</v>
       </c>
       <c r="CO2">
-        <v>9.469568835023663</v>
+        <v>5.794139981741864</v>
       </c>
       <c r="CP2">
-        <v>27.38833368239559</v>
+        <v>9.04091175256649</v>
       </c>
       <c r="CQ2">
-        <v>24.31323490860338</v>
+        <v>11.32402544473462</v>
       </c>
       <c r="CR2">
-        <v>13.06236037256694</v>
+        <v>31.60358932317866</v>
       </c>
       <c r="CS2">
-        <v>31.90589897166441</v>
+        <v>3.490168501928667</v>
+      </c>
+      <c r="CT2">
+        <v>18.21630557271865</v>
+      </c>
+      <c r="CU2">
+        <v>12.56413342606736</v>
+      </c>
+      <c r="CV2">
+        <v>22.83919447406334</v>
+      </c>
+      <c r="CW2">
+        <v>7.86388499631171</v>
       </c>
     </row>
-    <row r="3" spans="1:97">
+    <row r="3" spans="1:101">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.85733166781029</v>
+        <v>26.11247087971694</v>
+      </c>
+      <c r="C3">
+        <v>4.008304200732295</v>
+      </c>
+      <c r="D3">
+        <v>6.49900800811199</v>
       </c>
       <c r="E3">
-        <v>11.99984515839344</v>
+        <v>15.24672352981516</v>
       </c>
       <c r="F3">
-        <v>14.13946842210007</v>
+        <v>11.33778004211259</v>
+      </c>
+      <c r="G3">
+        <v>7.370055274497566</v>
       </c>
       <c r="H3">
-        <v>15.36311004065266</v>
+        <v>13.33308995157244</v>
       </c>
       <c r="I3">
-        <v>16.21318765375965</v>
+        <v>4.704649162279127</v>
+      </c>
+      <c r="J3">
+        <v>14.047639884491</v>
       </c>
       <c r="K3">
-        <v>11.75444335225931</v>
+        <v>15.67877693084673</v>
+      </c>
+      <c r="L3">
+        <v>11.26188772740865</v>
       </c>
       <c r="M3">
-        <v>24.68276098121812</v>
+        <v>23.62140605829744</v>
       </c>
       <c r="N3">
-        <v>17.12869117919867</v>
+        <v>10.0204648636139</v>
       </c>
       <c r="O3">
-        <v>10.14924046106556</v>
+        <v>21.00012508480512</v>
       </c>
       <c r="P3">
-        <v>11.44647204533478</v>
+        <v>15.99021116118178</v>
+      </c>
+      <c r="Q3">
+        <v>9.175672931553803</v>
+      </c>
+      <c r="R3">
+        <v>9.58682171278768</v>
       </c>
       <c r="S3">
-        <v>9.049934526095942</v>
+        <v>5.889077909031366</v>
+      </c>
+      <c r="T3">
+        <v>6.428574398767403</v>
+      </c>
+      <c r="U3">
+        <v>23.2709887159697</v>
+      </c>
+      <c r="V3">
+        <v>19.88383535265564</v>
       </c>
       <c r="W3">
-        <v>13.02201669053147</v>
+        <v>11.30057379740299</v>
+      </c>
+      <c r="X3">
+        <v>20.56923191388308</v>
       </c>
       <c r="Y3">
-        <v>16.1008269274516</v>
+        <v>15.26768092892881</v>
       </c>
       <c r="Z3">
-        <v>14.08854161680892</v>
+        <v>13.51537740380867</v>
       </c>
       <c r="AA3">
-        <v>16.01950129065814</v>
+        <v>10.75355210547179</v>
       </c>
       <c r="AB3">
-        <v>22.707587630897</v>
+        <v>9.163715315875001</v>
+      </c>
+      <c r="AC3">
+        <v>5.969579803618666</v>
+      </c>
+      <c r="AD3">
+        <v>11.7993541923639</v>
+      </c>
+      <c r="AF3">
+        <v>19.98768258091528</v>
+      </c>
+      <c r="AG3">
+        <v>11.09821906200286</v>
+      </c>
+      <c r="AH3">
+        <v>4.05864669734313</v>
+      </c>
+      <c r="AI3">
+        <v>13.19054434909615</v>
+      </c>
+      <c r="AJ3">
+        <v>13.91190585353199</v>
+      </c>
+      <c r="AL3">
+        <v>10.44777512117444</v>
+      </c>
+      <c r="AM3">
+        <v>15.57958558370209</v>
+      </c>
+      <c r="AN3">
+        <v>12.98825624713166</v>
+      </c>
+      <c r="AO3">
+        <v>9.203438433897809</v>
+      </c>
+      <c r="AP3">
+        <v>18.82686842505925</v>
       </c>
       <c r="AQ3">
-        <v>34.69535508414147</v>
+        <v>29.3665640829245</v>
       </c>
       <c r="AR3">
-        <v>27.48554306705771</v>
+        <v>6.460446876138817</v>
       </c>
       <c r="AS3">
-        <v>34.22501336753712</v>
+        <v>4.093540884515716</v>
       </c>
       <c r="AT3">
-        <v>12.92649374222106</v>
+        <v>15.03286990500858</v>
       </c>
       <c r="AU3">
-        <v>20.62720280935883</v>
+        <v>5.20720189160493</v>
+      </c>
+      <c r="AV3">
+        <v>34.69279690580304</v>
       </c>
       <c r="AX3">
-        <v>13.75960733589823</v>
+        <v>9.436271347722366</v>
+      </c>
+      <c r="AY3">
+        <v>6.529313611778436</v>
+      </c>
+      <c r="AZ3">
+        <v>17.3861027166314</v>
+      </c>
+      <c r="BA3">
+        <v>8.793326717371711</v>
       </c>
       <c r="BB3">
-        <v>8.630351921947229</v>
+        <v>6.0434517668533</v>
       </c>
       <c r="BC3">
-        <v>29.94260782218332</v>
+        <v>15.74733035969991</v>
+      </c>
+      <c r="BD3">
+        <v>24.1903156896056</v>
+      </c>
+      <c r="BE3">
+        <v>7.089254517281475</v>
       </c>
       <c r="BF3">
-        <v>10.72114950772226</v>
+        <v>9.421185011666152</v>
+      </c>
+      <c r="BG3">
+        <v>13.93791112665992</v>
+      </c>
+      <c r="BH3">
+        <v>7.58447210921894</v>
       </c>
       <c r="BI3">
-        <v>10.04055432504112</v>
+        <v>20.5189712138446</v>
       </c>
       <c r="BJ3">
-        <v>20.45660614572317</v>
+        <v>17.29504155872819</v>
       </c>
       <c r="BK3">
-        <v>7.256237209075631</v>
+        <v>5.192871404684011</v>
+      </c>
+      <c r="BM3">
+        <v>21.46869327627096</v>
+      </c>
+      <c r="BN3">
+        <v>8.768144492971548</v>
       </c>
       <c r="BO3">
-        <v>10.09955085307439</v>
+        <v>12.22898604666712</v>
       </c>
       <c r="BP3">
-        <v>21.65915992001407</v>
+        <v>7.422335502013038</v>
       </c>
       <c r="BQ3">
-        <v>9.500986518750556</v>
+        <v>35.46020823949006</v>
       </c>
       <c r="BR3">
-        <v>22.55967436761074</v>
+        <v>17.33509470603526</v>
       </c>
       <c r="BS3">
-        <v>21.53558160782326</v>
+        <v>7.667708563132159</v>
+      </c>
+      <c r="BT3">
+        <v>11.24485883252579</v>
       </c>
       <c r="BU3">
-        <v>11.05176181294396</v>
+        <v>16.1300570644108</v>
       </c>
       <c r="BV3">
-        <v>17.11729112490471</v>
+        <v>9.217528059629462</v>
+      </c>
+      <c r="BW3">
+        <v>10.47907415358075</v>
+      </c>
+      <c r="BX3">
+        <v>16.2681425351945</v>
+      </c>
+      <c r="BY3">
+        <v>5.026607943619346</v>
+      </c>
+      <c r="BZ3">
+        <v>11.93990640453137</v>
+      </c>
+      <c r="CA3">
+        <v>10.02438408200591</v>
+      </c>
+      <c r="CB3">
+        <v>4.919334468555547</v>
+      </c>
+      <c r="CC3">
+        <v>12.21461505217564</v>
+      </c>
+      <c r="CD3">
+        <v>6.911063156367268</v>
+      </c>
+      <c r="CE3">
+        <v>4.126573010054496</v>
+      </c>
+      <c r="CF3">
+        <v>8.328840342432496</v>
       </c>
       <c r="CG3">
-        <v>30.10021214543765</v>
+        <v>5.337697326068572</v>
+      </c>
+      <c r="CH3">
+        <v>14.19002424151916</v>
+      </c>
+      <c r="CI3">
+        <v>10.47519075033289</v>
       </c>
       <c r="CK3">
-        <v>8.886655910805606</v>
+        <v>9.261236693309971</v>
+      </c>
+      <c r="CL3">
+        <v>5.125513072826113</v>
+      </c>
+      <c r="CM3">
+        <v>6.738526489194736</v>
       </c>
       <c r="CN3">
-        <v>19.02691211881678</v>
+        <v>5.672456540742108</v>
+      </c>
+      <c r="CO3">
+        <v>4.964158192776438</v>
+      </c>
+      <c r="CP3">
+        <v>10.50037975767535</v>
+      </c>
+      <c r="CQ3">
+        <v>17.8140455842069</v>
+      </c>
+      <c r="CR3">
+        <v>15.61409189206132</v>
+      </c>
+      <c r="CS3">
+        <v>7.874550501364272</v>
+      </c>
+      <c r="CT3">
+        <v>4.29693395246867</v>
+      </c>
+      <c r="CU3">
+        <v>3.445067037812779</v>
+      </c>
+      <c r="CV3">
+        <v>12.65685619163586</v>
       </c>
     </row>
-    <row r="4" spans="1:97">
+    <row r="4" spans="1:101">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.75831081229652</v>
+        <v>25.55552742505525</v>
+      </c>
+      <c r="C4">
+        <v>5.626453069344069</v>
+      </c>
+      <c r="D4">
+        <v>7.318527685943972</v>
       </c>
       <c r="E4">
-        <v>12.27195419630733</v>
+        <v>12.09313309253648</v>
       </c>
       <c r="F4">
-        <v>13.57147322709722</v>
+        <v>10.86790796360525</v>
       </c>
       <c r="H4">
-        <v>17.17412557306331</v>
+        <v>12.60998629038429</v>
       </c>
       <c r="I4">
-        <v>20.83942440563532</v>
+        <v>8.417712970192111</v>
+      </c>
+      <c r="J4">
+        <v>15.5367160389945</v>
       </c>
       <c r="K4">
-        <v>13.25118668744243</v>
+        <v>19.98930457600799</v>
+      </c>
+      <c r="L4">
+        <v>14.89167284838483</v>
       </c>
       <c r="M4">
-        <v>25.60665324176451</v>
+        <v>24.5866850136556</v>
       </c>
       <c r="N4">
-        <v>18.8321971893619</v>
+        <v>11.17849764590948</v>
       </c>
       <c r="O4">
-        <v>11.56734374124578</v>
+        <v>17.6755845420735</v>
       </c>
       <c r="P4">
-        <v>17.31157886833356</v>
+        <v>16.90295146564955</v>
+      </c>
+      <c r="Q4">
+        <v>9.884244297845989</v>
+      </c>
+      <c r="R4">
+        <v>15.08675533233515</v>
       </c>
       <c r="S4">
-        <v>10.32242295240463</v>
+        <v>5.926160814631886</v>
+      </c>
+      <c r="T4">
+        <v>6.798552390727441</v>
+      </c>
+      <c r="U4">
+        <v>13.58081449530044</v>
+      </c>
+      <c r="V4">
+        <v>20.39604494687434</v>
       </c>
       <c r="W4">
-        <v>15.41644807522832</v>
+        <v>12.56785972922592</v>
+      </c>
+      <c r="X4">
+        <v>14.4403044908095</v>
       </c>
       <c r="Y4">
-        <v>17.70074232340492</v>
+        <v>16.41286262320666</v>
       </c>
       <c r="Z4">
-        <v>16.73850778875545</v>
+        <v>14.69358615139603</v>
+      </c>
+      <c r="AA4">
+        <v>11.86327941607494</v>
       </c>
       <c r="AB4">
-        <v>13.53035636137016</v>
+        <v>9.173739322885558</v>
+      </c>
+      <c r="AC4">
+        <v>6.538087242726341</v>
+      </c>
+      <c r="AD4">
+        <v>10.11801072259254</v>
+      </c>
+      <c r="AF4">
+        <v>13.35141460915046</v>
+      </c>
+      <c r="AG4">
+        <v>13.63056231292342</v>
       </c>
       <c r="AH4">
-        <v>14.69734443071683</v>
+        <v>3.783367595496448</v>
+      </c>
+      <c r="AI4">
+        <v>9.006046001644824</v>
       </c>
       <c r="AJ4">
-        <v>11.48218612118469</v>
-      </c>
-      <c r="AK4">
-        <v>6.813081682328261</v>
+        <v>8.253403178565874</v>
+      </c>
+      <c r="AL4">
+        <v>12.05351811948756</v>
       </c>
       <c r="AM4">
-        <v>13.0465531713679</v>
+        <v>17.70463835510504</v>
+      </c>
+      <c r="AN4">
+        <v>14.21245854238709</v>
+      </c>
+      <c r="AO4">
+        <v>10.74829201976529</v>
+      </c>
+      <c r="AP4">
+        <v>18.44910955721049</v>
       </c>
       <c r="AQ4">
-        <v>27.20192379301784</v>
+        <v>18.95816851927945</v>
       </c>
       <c r="AR4">
-        <v>18.55550769238412</v>
-      </c>
-      <c r="AS4">
-        <v>23.8477309826584</v>
+        <v>5.529483628690264</v>
       </c>
       <c r="AT4">
-        <v>11.41658254484343</v>
+        <v>7.805959749936347</v>
       </c>
       <c r="AU4">
-        <v>14.48861470992897</v>
-      </c>
-      <c r="AX4">
-        <v>10.14555651444259</v>
+        <v>7.729059708926133</v>
+      </c>
+      <c r="AV4">
+        <v>27.66222856390402</v>
+      </c>
+      <c r="AZ4">
+        <v>18.0846550610365</v>
+      </c>
+      <c r="BA4">
+        <v>9.419670205890506</v>
       </c>
       <c r="BB4">
-        <v>9.907659815837343</v>
+        <v>6.457218220637944</v>
       </c>
       <c r="BC4">
-        <v>28.22853003488174</v>
+        <v>16.17543181705416</v>
+      </c>
+      <c r="BD4">
+        <v>19.20588398896217</v>
+      </c>
+      <c r="BE4">
+        <v>9.490915881388036</v>
+      </c>
+      <c r="BF4">
+        <v>11.89574092761779</v>
+      </c>
+      <c r="BG4">
+        <v>14.34892143365536</v>
+      </c>
+      <c r="BH4">
+        <v>6.132472230244499</v>
       </c>
       <c r="BI4">
-        <v>11.210780272644</v>
+        <v>26.95361780619099</v>
       </c>
       <c r="BJ4">
-        <v>20.29199206730204</v>
+        <v>15.37132268817119</v>
       </c>
       <c r="BK4">
-        <v>8.258214088303918</v>
+        <v>4.171729088121999</v>
+      </c>
+      <c r="BL4">
+        <v>6.755015528033115</v>
+      </c>
+      <c r="BM4">
+        <v>19.10873674722388</v>
+      </c>
+      <c r="BN4">
+        <v>7.062819235968161</v>
+      </c>
+      <c r="BO4">
+        <v>12.42043208558597</v>
       </c>
       <c r="BP4">
-        <v>25.33444292833862</v>
-      </c>
-      <c r="BS4">
-        <v>23.32851144564108</v>
+        <v>9.01542433639726</v>
+      </c>
+      <c r="BQ4">
+        <v>38.16088161799465</v>
+      </c>
+      <c r="BR4">
+        <v>19.68622004040905</v>
+      </c>
+      <c r="BT4">
+        <v>12.92415482816825</v>
       </c>
       <c r="BU4">
-        <v>12.3743587651066</v>
+        <v>19.2609513567273</v>
       </c>
       <c r="BV4">
-        <v>18.19775085979828</v>
+        <v>10.82427427277965</v>
+      </c>
+      <c r="BW4">
+        <v>10.68865216950033</v>
+      </c>
+      <c r="BX4">
+        <v>17.39798757306479</v>
+      </c>
+      <c r="BY4">
+        <v>4.876886464477897</v>
+      </c>
+      <c r="BZ4">
+        <v>10.16200712587238</v>
+      </c>
+      <c r="CA4">
+        <v>11.59627289430651</v>
+      </c>
+      <c r="CB4">
+        <v>7.902012181006212</v>
+      </c>
+      <c r="CC4">
+        <v>13.83324875751244</v>
+      </c>
+      <c r="CD4">
+        <v>8.875810825535055</v>
+      </c>
+      <c r="CE4">
+        <v>4.223189360771321</v>
       </c>
       <c r="CF4">
-        <v>25.07827514258131</v>
+        <v>9.324037744255049</v>
+      </c>
+      <c r="CG4">
+        <v>4.458859594369478</v>
       </c>
       <c r="CH4">
-        <v>10.65713894344101</v>
+        <v>13.01528493403703</v>
+      </c>
+      <c r="CI4">
+        <v>11.85340335609135</v>
       </c>
       <c r="CK4">
-        <v>10.07754409053898</v>
+        <v>9.024590282186216</v>
+      </c>
+      <c r="CL4">
+        <v>12.68570635684959</v>
+      </c>
+      <c r="CM4">
+        <v>5.398169574794341</v>
       </c>
       <c r="CN4">
-        <v>21.23687413919146</v>
+        <v>6.571120942628093</v>
+      </c>
+      <c r="CO4">
+        <v>3.7106367231025</v>
+      </c>
+      <c r="CP4">
+        <v>9.69995449472048</v>
+      </c>
+      <c r="CQ4">
+        <v>20.29866534824283</v>
+      </c>
+      <c r="CR4">
+        <v>7.261983710834275</v>
+      </c>
+      <c r="CS4">
+        <v>8.233748678603757</v>
+      </c>
+      <c r="CT4">
+        <v>11.20816437362429</v>
+      </c>
+      <c r="CU4">
+        <v>7.71972160351646</v>
+      </c>
+      <c r="CV4">
+        <v>9.240547172125952</v>
+      </c>
+      <c r="CW4">
+        <v>8.879012691393449</v>
       </c>
     </row>
-    <row r="5" spans="1:97">
+    <row r="5" spans="1:101">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27.94827261398019</v>
+        <v>27.26125761011526</v>
+      </c>
+      <c r="C5">
+        <v>6.144418289000518</v>
       </c>
       <c r="D5">
-        <v>10.76515547293734</v>
+        <v>5.126878494195081</v>
       </c>
       <c r="E5">
-        <v>13.02161057545045</v>
+        <v>9.696884606081966</v>
       </c>
       <c r="F5">
-        <v>17.80731936489687</v>
+        <v>11.59002533977607</v>
       </c>
       <c r="H5">
-        <v>17.51831469766137</v>
+        <v>16.95253922490426</v>
       </c>
       <c r="I5">
-        <v>17.98664118195706</v>
+        <v>5.196417297114668</v>
+      </c>
+      <c r="J5">
+        <v>16.36614528154483</v>
       </c>
       <c r="K5">
-        <v>13.53948655158143</v>
+        <v>16.9785820933431</v>
+      </c>
+      <c r="L5">
+        <v>7.44116067475249</v>
       </c>
       <c r="M5">
-        <v>13.88660175991086</v>
+        <v>12.56057713850005</v>
       </c>
       <c r="N5">
-        <v>17.31256410410369</v>
+        <v>11.09798015013496</v>
       </c>
       <c r="O5">
-        <v>8.604798885267382</v>
+        <v>14.80820016295506</v>
       </c>
       <c r="P5">
-        <v>14.59374436332556</v>
+        <v>15.72966199778372</v>
+      </c>
+      <c r="Q5">
+        <v>7.50640368911256</v>
+      </c>
+      <c r="R5">
+        <v>12.77682675230054</v>
       </c>
       <c r="S5">
-        <v>9.69516412400975</v>
+        <v>4.569234012536539</v>
+      </c>
+      <c r="T5">
+        <v>6.95512891917959</v>
+      </c>
+      <c r="U5">
+        <v>12.11691807986178</v>
+      </c>
+      <c r="V5">
+        <v>12.03253081474305</v>
       </c>
       <c r="W5">
-        <v>14.68942956739212</v>
+        <v>12.36496102964354</v>
+      </c>
+      <c r="X5">
+        <v>12.61228663509238</v>
       </c>
       <c r="Y5">
-        <v>17.8929890899062</v>
+        <v>17.04280844485659</v>
       </c>
       <c r="Z5">
-        <v>14.18813622874549</v>
+        <v>12.45926359754635</v>
+      </c>
+      <c r="AA5">
+        <v>12.03516451985706</v>
       </c>
       <c r="AB5">
-        <v>19.07567344339285</v>
+        <v>7.480413056447444</v>
+      </c>
+      <c r="AC5">
+        <v>5.511464298335998</v>
+      </c>
+      <c r="AD5">
+        <v>10.87576116776278</v>
+      </c>
+      <c r="AF5">
+        <v>17.78215523497374</v>
+      </c>
+      <c r="AG5">
+        <v>9.71059885306952</v>
+      </c>
+      <c r="AH5">
+        <v>4.784162248984294</v>
+      </c>
+      <c r="AI5">
+        <v>11.99483455838274</v>
+      </c>
+      <c r="AJ5">
+        <v>12.91626097382175</v>
+      </c>
+      <c r="AL5">
+        <v>9.479013578957064</v>
+      </c>
+      <c r="AM5">
+        <v>12.63938279774119</v>
+      </c>
+      <c r="AN5">
+        <v>11.35992562626579</v>
+      </c>
+      <c r="AO5">
+        <v>6.848688039462974</v>
+      </c>
+      <c r="AP5">
+        <v>18.23399271774595</v>
       </c>
       <c r="AQ5">
-        <v>32.42932886924378</v>
+        <v>22.4463052538538</v>
       </c>
       <c r="AR5">
-        <v>25.18537586726113</v>
+        <v>5.974544155038265</v>
       </c>
       <c r="AS5">
-        <v>28.97290232645446</v>
+        <v>4.208528871813701</v>
       </c>
       <c r="AT5">
-        <v>11.94627397626394</v>
+        <v>12.63902601184566</v>
       </c>
       <c r="AU5">
-        <v>18.49695492255743</v>
-      </c>
-      <c r="AX5">
-        <v>12.71072958903997</v>
+        <v>4.421734672987134</v>
+      </c>
+      <c r="AV5">
+        <v>33.14437772392034</v>
+      </c>
+      <c r="AY5">
+        <v>6.278350552330357</v>
+      </c>
+      <c r="AZ5">
+        <v>17.0594798537959</v>
+      </c>
+      <c r="BA5">
+        <v>15.55932485162937</v>
       </c>
       <c r="BB5">
-        <v>9.52736094960528</v>
+        <v>6.850428677295898</v>
       </c>
       <c r="BC5">
-        <v>22.2008449186094</v>
+        <v>13.95019961093662</v>
+      </c>
+      <c r="BD5">
+        <v>16.57068398812157</v>
       </c>
       <c r="BE5">
-        <v>16.55062981560118</v>
+        <v>4.970700166819994</v>
+      </c>
+      <c r="BF5">
+        <v>12.15507248407493</v>
+      </c>
+      <c r="BG5">
+        <v>11.81789229796466</v>
+      </c>
+      <c r="BH5">
+        <v>5.019925228343721</v>
       </c>
       <c r="BI5">
-        <v>11.20835896543343</v>
+        <v>20.45092788576854</v>
+      </c>
+      <c r="BJ5">
+        <v>11.52816143776621</v>
       </c>
       <c r="BK5">
-        <v>7.01992886105781</v>
+        <v>3.734682204807588</v>
+      </c>
+      <c r="BM5">
+        <v>16.70619688209087</v>
+      </c>
+      <c r="BN5">
+        <v>5.651843963492574</v>
+      </c>
+      <c r="BO5">
+        <v>15.21806094010798</v>
       </c>
       <c r="BP5">
-        <v>19.7200782979729</v>
-      </c>
-      <c r="BS5">
-        <v>21.18048041598842</v>
+        <v>7.827138884995334</v>
+      </c>
+      <c r="BQ5">
+        <v>33.33942997309273</v>
+      </c>
+      <c r="BR5">
+        <v>17.71417499192894</v>
+      </c>
+      <c r="BT5">
+        <v>9.882562372810032</v>
       </c>
       <c r="BU5">
-        <v>10.6830526428052</v>
+        <v>12.96979532664401</v>
       </c>
       <c r="BV5">
-        <v>21.99143932857613</v>
+        <v>11.2578036632913</v>
+      </c>
+      <c r="BW5">
+        <v>8.99765354654205</v>
+      </c>
+      <c r="BX5">
+        <v>13.25538352356827</v>
+      </c>
+      <c r="BY5">
+        <v>5.28387990879918</v>
       </c>
       <c r="BZ5">
-        <v>10.26682282461439</v>
+        <v>10.38584657071855</v>
+      </c>
+      <c r="CA5">
+        <v>10.65743722807696</v>
+      </c>
+      <c r="CB5">
+        <v>5.813181903476299</v>
       </c>
       <c r="CC5">
-        <v>14.48020369200723</v>
+        <v>16.10038275641778</v>
+      </c>
+      <c r="CD5">
+        <v>7.139928899806925</v>
+      </c>
+      <c r="CE5">
+        <v>5.009952008790208</v>
+      </c>
+      <c r="CF5">
+        <v>14.78048971293493</v>
+      </c>
+      <c r="CG5">
+        <v>4.303653624846215</v>
       </c>
       <c r="CH5">
-        <v>12.45607481808447</v>
+        <v>12.01340403156509</v>
+      </c>
+      <c r="CI5">
+        <v>12.70492762694189</v>
       </c>
       <c r="CK5">
-        <v>9.069168613796922</v>
+        <v>10.56090514447631</v>
+      </c>
+      <c r="CL5">
+        <v>4.522747687628803</v>
+      </c>
+      <c r="CM5">
+        <v>6.96596920630454</v>
+      </c>
+      <c r="CN5">
+        <v>8.183412272884951</v>
+      </c>
+      <c r="CO5">
+        <v>4.960185785925661</v>
       </c>
       <c r="CP5">
-        <v>20.97832853725949</v>
+        <v>12.38763704683741</v>
+      </c>
+      <c r="CQ5">
+        <v>23.68214315357727</v>
+      </c>
+      <c r="CR5">
+        <v>19.03618586763342</v>
       </c>
       <c r="CS5">
-        <v>20.14026093349704</v>
+        <v>8.127585893690272</v>
+      </c>
+      <c r="CT5">
+        <v>5.041682692525457</v>
+      </c>
+      <c r="CU5">
+        <v>3.3739310844742</v>
+      </c>
+      <c r="CV5">
+        <v>18.78285634262118</v>
+      </c>
+      <c r="CW5">
+        <v>10.94513101255771</v>
       </c>
     </row>
-    <row r="6" spans="1:97">
+    <row r="6" spans="1:101">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.86805299832653</v>
+        <v>25.1250161497939</v>
+      </c>
+      <c r="C6">
+        <v>11.23114620109469</v>
+      </c>
+      <c r="D6">
+        <v>8.561636930783308</v>
       </c>
       <c r="E6">
-        <v>16.36536910855016</v>
+        <v>10.70440041897811</v>
       </c>
       <c r="F6">
-        <v>28.22989830913046</v>
+        <v>14.37509015738993</v>
       </c>
       <c r="H6">
-        <v>19.65990443721695</v>
+        <v>27.05258818719493</v>
       </c>
       <c r="I6">
-        <v>24.72634087332784</v>
+        <v>4.29663542609422</v>
+      </c>
+      <c r="J6">
+        <v>17.91293365166447</v>
       </c>
       <c r="K6">
-        <v>12.50670985745038</v>
+        <v>22.89678519127987</v>
+      </c>
+      <c r="L6">
+        <v>10.88419999313688</v>
       </c>
       <c r="M6">
-        <v>12.445323458817</v>
+        <v>10.37685144443182</v>
       </c>
       <c r="N6">
-        <v>21.48774789000658</v>
+        <v>10.1838540008278</v>
+      </c>
+      <c r="O6">
+        <v>13.29451393563649</v>
       </c>
       <c r="P6">
-        <v>18.89836633658592</v>
+        <v>20.13120927065842</v>
+      </c>
+      <c r="Q6">
+        <v>6.745885444626075</v>
+      </c>
+      <c r="R6">
+        <v>16.49009730495519</v>
       </c>
       <c r="S6">
-        <v>9.861386515434637</v>
+        <v>4.108116252202366</v>
+      </c>
+      <c r="T6">
+        <v>6.168964839261205</v>
+      </c>
+      <c r="U6">
+        <v>14.24177980650886</v>
+      </c>
+      <c r="V6">
+        <v>10.07036817880764</v>
       </c>
       <c r="W6">
-        <v>17.95684185986288</v>
+        <v>15.84991288345542</v>
+      </c>
+      <c r="X6">
+        <v>6.88274376015816</v>
       </c>
       <c r="Y6">
-        <v>18.11285471570669</v>
+        <v>17.13683474645028</v>
       </c>
       <c r="Z6">
-        <v>21.71288050542693</v>
+        <v>20.32196820050254</v>
       </c>
       <c r="AA6">
-        <v>16.9992102536316</v>
+        <v>13.26178133145332</v>
       </c>
       <c r="AB6">
-        <v>27.61323778425081</v>
+        <v>8.885798720116906</v>
+      </c>
+      <c r="AC6">
+        <v>6.822083910905606</v>
+      </c>
+      <c r="AD6">
+        <v>11.3502087419692</v>
+      </c>
+      <c r="AF6">
+        <v>18.32433286916428</v>
+      </c>
+      <c r="AG6">
+        <v>9.870737505853077</v>
+      </c>
+      <c r="AH6">
+        <v>7.368892315998169</v>
+      </c>
+      <c r="AI6">
+        <v>11.13160763291542</v>
+      </c>
+      <c r="AJ6">
+        <v>13.05263587283308</v>
+      </c>
+      <c r="AK6">
+        <v>10.33472730464348</v>
+      </c>
+      <c r="AL6">
+        <v>11.33094387110635</v>
+      </c>
+      <c r="AM6">
+        <v>16.70962111374888</v>
+      </c>
+      <c r="AN6">
+        <v>15.55058268287009</v>
+      </c>
+      <c r="AO6">
+        <v>9.689588480937388</v>
+      </c>
+      <c r="AP6">
+        <v>25.22429057626407</v>
       </c>
       <c r="AQ6">
-        <v>44.62580142273237</v>
+        <v>26.52025607850341</v>
       </c>
       <c r="AR6">
-        <v>23.96162462189578</v>
+        <v>7.211637228536832</v>
       </c>
       <c r="AS6">
-        <v>35.65833730908024</v>
+        <v>5.136426934922729</v>
       </c>
       <c r="AT6">
-        <v>12.40772625676778</v>
+        <v>19.22556297529984</v>
       </c>
       <c r="AU6">
-        <v>19.17634592765697</v>
+        <v>4.248279350765515</v>
+      </c>
+      <c r="AV6">
+        <v>44.48551907021983</v>
+      </c>
+      <c r="AW6">
+        <v>10.36167680401411</v>
       </c>
       <c r="AX6">
-        <v>12.03693793972159</v>
+        <v>8.109784530318498</v>
+      </c>
+      <c r="AY6">
+        <v>6.319855463143073</v>
       </c>
       <c r="AZ6">
-        <v>19.22878504203613</v>
+        <v>16.16207140806881</v>
+      </c>
+      <c r="BA6">
+        <v>7.351926278476936</v>
       </c>
       <c r="BB6">
-        <v>8.981826435197117</v>
+        <v>5.376166890973842</v>
+      </c>
+      <c r="BC6">
+        <v>15.73154869623648</v>
+      </c>
+      <c r="BD6">
+        <v>20.5525630414224</v>
       </c>
       <c r="BE6">
-        <v>14.97638744866183</v>
+        <v>7.050419659977671</v>
+      </c>
+      <c r="BF6">
+        <v>9.330529688064033</v>
+      </c>
+      <c r="BG6">
+        <v>12.31016948681667</v>
+      </c>
+      <c r="BH6">
+        <v>4.729797810100718</v>
       </c>
       <c r="BI6">
-        <v>9.414607929852036</v>
+        <v>19.16291808230012</v>
       </c>
       <c r="BJ6">
-        <v>23.0101664182463</v>
+        <v>14.68326518673993</v>
       </c>
       <c r="BK6">
-        <v>6.540421535745196</v>
+        <v>3.372229778775184</v>
+      </c>
+      <c r="BL6">
+        <v>6.157509948139967</v>
+      </c>
+      <c r="BM6">
+        <v>23.55266863869032</v>
+      </c>
+      <c r="BN6">
+        <v>7.702928318946977</v>
+      </c>
+      <c r="BO6">
+        <v>14.19256603508788</v>
       </c>
       <c r="BP6">
-        <v>25.25980012862084</v>
+        <v>7.710456298730935</v>
+      </c>
+      <c r="BQ6">
+        <v>34.85666319128323</v>
       </c>
       <c r="BR6">
-        <v>24.63281696118735</v>
+        <v>17.85022758899843</v>
       </c>
       <c r="BS6">
-        <v>22.03760692157367</v>
+        <v>7.12410518186614</v>
+      </c>
+      <c r="BT6">
+        <v>11.02567196546326</v>
       </c>
       <c r="BU6">
-        <v>9.807660349006312</v>
+        <v>18.61872210008512</v>
       </c>
       <c r="BV6">
-        <v>16.94720660087624</v>
+        <v>10.24642695642413</v>
+      </c>
+      <c r="BW6">
+        <v>8.92199538969351</v>
+      </c>
+      <c r="BX6">
+        <v>16.24483545783038</v>
+      </c>
+      <c r="BY6">
+        <v>6.037333571615008</v>
       </c>
       <c r="BZ6">
-        <v>10.27490398886272</v>
+        <v>8.383291305212724</v>
       </c>
       <c r="CA6">
-        <v>11.32175476521234</v>
+        <v>12.37814223386427</v>
+      </c>
+      <c r="CB6">
+        <v>6.002109818226623</v>
       </c>
       <c r="CC6">
-        <v>15.81812308789387</v>
+        <v>14.34100506631568</v>
+      </c>
+      <c r="CD6">
+        <v>9.103213931694636</v>
+      </c>
+      <c r="CE6">
+        <v>4.935581271301029</v>
       </c>
       <c r="CF6">
-        <v>30.5325836027596</v>
+        <v>8.437597111623331</v>
       </c>
       <c r="CG6">
-        <v>29.93341329202038</v>
+        <v>7.009549683452565</v>
       </c>
       <c r="CH6">
-        <v>11.37805132825316</v>
+        <v>13.06188712303583</v>
+      </c>
+      <c r="CI6">
+        <v>12.4647086361903</v>
       </c>
       <c r="CK6">
-        <v>8.204378165145009</v>
+        <v>11.64444282529726</v>
+      </c>
+      <c r="CL6">
+        <v>5.443000044254013</v>
+      </c>
+      <c r="CM6">
+        <v>8.016508080662916</v>
       </c>
       <c r="CN6">
-        <v>24.06789171586552</v>
+        <v>6.479005959754764</v>
+      </c>
+      <c r="CO6">
+        <v>4.471897152109912</v>
       </c>
       <c r="CP6">
-        <v>14.80231830388473</v>
+        <v>11.0712679186989</v>
+      </c>
+      <c r="CQ6">
+        <v>15.81991459539997</v>
       </c>
       <c r="CR6">
-        <v>6.932247516584393</v>
+        <v>16.77698588593125</v>
       </c>
       <c r="CS6">
-        <v>17.97952944674699</v>
+        <v>7.137052640903903</v>
+      </c>
+      <c r="CT6">
+        <v>6.004100466782719</v>
+      </c>
+      <c r="CU6">
+        <v>3.114225918332664</v>
+      </c>
+      <c r="CV6">
+        <v>15.73461125007549</v>
       </c>
     </row>
-    <row r="7" spans="1:97">
+    <row r="7" spans="1:101">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.44205090775215</v>
+        <v>23.59118933747699</v>
+      </c>
+      <c r="C7">
+        <v>4.190671556628926</v>
+      </c>
+      <c r="D7">
+        <v>5.195696485955872</v>
       </c>
       <c r="E7">
-        <v>12.93375618427636</v>
+        <v>7.178266056064488</v>
       </c>
       <c r="F7">
-        <v>25.3626241974269</v>
+        <v>10.82531249717764</v>
       </c>
       <c r="H7">
-        <v>17.39280779015787</v>
+        <v>24.51874100902162</v>
       </c>
       <c r="I7">
-        <v>20.08124650014035</v>
+        <v>8.675902001688264</v>
+      </c>
+      <c r="J7">
+        <v>15.56685707390516</v>
       </c>
       <c r="K7">
-        <v>13.40190233575708</v>
+        <v>18.94584977595164</v>
+      </c>
+      <c r="L7">
+        <v>6.471767194798077</v>
       </c>
       <c r="M7">
-        <v>12.37367267850432</v>
+        <v>10.79745801577776</v>
       </c>
       <c r="N7">
-        <v>15.49015804214294</v>
+        <v>11.3048898733673</v>
       </c>
       <c r="O7">
-        <v>9.408925600298293</v>
+        <v>9.164456394426612</v>
       </c>
       <c r="P7">
-        <v>13.77993775274674</v>
+        <v>13.09480223190573</v>
+      </c>
+      <c r="Q7">
+        <v>8.653275228430651</v>
+      </c>
+      <c r="R7">
+        <v>10.73624439434762</v>
       </c>
       <c r="S7">
-        <v>11.90548823215956</v>
+        <v>5.420872179439343</v>
+      </c>
+      <c r="T7">
+        <v>7.317554968165988</v>
+      </c>
+      <c r="U7">
+        <v>9.791710132876844</v>
+      </c>
+      <c r="V7">
+        <v>10.65755200285112</v>
       </c>
       <c r="W7">
-        <v>15.8881984810527</v>
+        <v>13.3523635727741</v>
+      </c>
+      <c r="X7">
+        <v>8.170112606369978</v>
       </c>
       <c r="Y7">
-        <v>17.1415840040722</v>
+        <v>15.78785118862214</v>
       </c>
       <c r="Z7">
-        <v>11.48370615214963</v>
+        <v>9.050924771034552</v>
+      </c>
+      <c r="AA7">
+        <v>11.72229115072298</v>
       </c>
       <c r="AB7">
-        <v>13.73714655958332</v>
+        <v>10.86669500346234</v>
+      </c>
+      <c r="AC7">
+        <v>7.432878767178833</v>
+      </c>
+      <c r="AD7">
+        <v>8.965648307053176</v>
+      </c>
+      <c r="AE7">
+        <v>19.59242499228513</v>
+      </c>
+      <c r="AF7">
+        <v>14.92803391821952</v>
+      </c>
+      <c r="AG7">
+        <v>15.3831884524478</v>
+      </c>
+      <c r="AH7">
+        <v>6.119200227347305</v>
+      </c>
+      <c r="AI7">
+        <v>10.97479632462296</v>
+      </c>
+      <c r="AJ7">
+        <v>10.27515980917343</v>
       </c>
       <c r="AK7">
-        <v>9.28718015950729</v>
+        <v>13.88488989111163</v>
+      </c>
+      <c r="AL7">
+        <v>11.03507847595241</v>
+      </c>
+      <c r="AM7">
+        <v>14.94671033096532</v>
+      </c>
+      <c r="AN7">
+        <v>13.51187681586512</v>
+      </c>
+      <c r="AO7">
+        <v>9.452521217465083</v>
+      </c>
+      <c r="AP7">
+        <v>16.36139469359708</v>
       </c>
       <c r="AQ7">
-        <v>26.33715619758649</v>
+        <v>13.23777847060283</v>
       </c>
       <c r="AR7">
-        <v>18.51127246163692</v>
+        <v>8.519401492245317</v>
       </c>
       <c r="AS7">
-        <v>20.73979415690375</v>
+        <v>3.652492490385097</v>
       </c>
       <c r="AT7">
-        <v>10.15343161937145</v>
+        <v>7.692562779736073</v>
       </c>
       <c r="AU7">
-        <v>15.72424044885378</v>
+        <v>6.728313905553509</v>
+      </c>
+      <c r="AV7">
+        <v>25.32218079001373</v>
+      </c>
+      <c r="AW7">
+        <v>11.51091508248106</v>
       </c>
       <c r="AX7">
-        <v>11.96252283640513</v>
+        <v>10.0652923761257</v>
+      </c>
+      <c r="AY7">
+        <v>6.170973753543319</v>
+      </c>
+      <c r="AZ7">
+        <v>13.25947903585334</v>
+      </c>
+      <c r="BA7">
+        <v>10.36968665572096</v>
       </c>
       <c r="BB7">
-        <v>10.21316787284864</v>
+        <v>5.423458856821214</v>
       </c>
       <c r="BC7">
-        <v>25.30048039697935</v>
+        <v>13.49094427798477</v>
+      </c>
+      <c r="BD7">
+        <v>14.68263691009626</v>
+      </c>
+      <c r="BE7">
+        <v>6.63499745409086</v>
+      </c>
+      <c r="BF7">
+        <v>9.436315640832817</v>
+      </c>
+      <c r="BG7">
+        <v>10.01706470902081</v>
+      </c>
+      <c r="BH7">
+        <v>3.744115563409129</v>
       </c>
       <c r="BI7">
-        <v>10.66363357388387</v>
+        <v>17.8035610587028</v>
       </c>
       <c r="BJ7">
-        <v>18.19025387919458</v>
+        <v>10.93863369082242</v>
       </c>
       <c r="BK7">
-        <v>7.50540681313928</v>
+        <v>2.792106808140662</v>
+      </c>
+      <c r="BL7">
+        <v>6.800031837242981</v>
+      </c>
+      <c r="BM7">
+        <v>17.49085787295485</v>
+      </c>
+      <c r="BN7">
+        <v>6.222180074378408</v>
+      </c>
+      <c r="BO7">
+        <v>14.84070836081801</v>
       </c>
       <c r="BP7">
-        <v>14.02284425939676</v>
+        <v>6.000095253070411</v>
+      </c>
+      <c r="BQ7">
+        <v>31.89075020318174</v>
       </c>
       <c r="BR7">
-        <v>17.56033056894484</v>
-      </c>
-      <c r="BS7">
-        <v>19.29935690307381</v>
+        <v>15.18958991814436</v>
+      </c>
+      <c r="BT7">
+        <v>12.04716032795076</v>
       </c>
       <c r="BU7">
-        <v>11.23457962748143</v>
+        <v>16.83079369327877</v>
       </c>
       <c r="BV7">
-        <v>17.07312641291942</v>
+        <v>10.98102909990395</v>
+      </c>
+      <c r="BW7">
+        <v>9.314979607808578</v>
+      </c>
+      <c r="BX7">
+        <v>12.36614285269292</v>
+      </c>
+      <c r="BY7">
+        <v>4.487802062065595</v>
+      </c>
+      <c r="BZ7">
+        <v>9.309813606448859</v>
+      </c>
+      <c r="CA7">
+        <v>9.249090934117586</v>
+      </c>
+      <c r="CB7">
+        <v>5.581771636693571</v>
+      </c>
+      <c r="CC7">
+        <v>14.13545834987398</v>
+      </c>
+      <c r="CD7">
+        <v>8.571095020412557</v>
+      </c>
+      <c r="CE7">
+        <v>4.709405646817607</v>
       </c>
       <c r="CF7">
-        <v>29.81338898267949</v>
+        <v>9.042198342959177</v>
       </c>
       <c r="CG7">
-        <v>30.0920648752517</v>
+        <v>4.892126759675177</v>
       </c>
       <c r="CH7">
-        <v>8.475223246828431</v>
+        <v>12.69753332353259</v>
+      </c>
+      <c r="CI7">
+        <v>8.623871879011038</v>
+      </c>
+      <c r="CK7">
+        <v>10.07372497294962</v>
+      </c>
+      <c r="CL7">
+        <v>4.5130142697067</v>
+      </c>
+      <c r="CM7">
+        <v>6.86417261154571</v>
+      </c>
+      <c r="CN7">
+        <v>8.322706007800653</v>
+      </c>
+      <c r="CO7">
+        <v>4.614307042470844</v>
+      </c>
+      <c r="CP7">
+        <v>8.789314800034141</v>
+      </c>
+      <c r="CQ7">
+        <v>14.55707978365978</v>
+      </c>
+      <c r="CR7">
+        <v>11.32961634297363</v>
+      </c>
+      <c r="CS7">
+        <v>5.75995540324174</v>
+      </c>
+      <c r="CT7">
+        <v>4.515755956143008</v>
+      </c>
+      <c r="CU7">
+        <v>3.240844297674672</v>
+      </c>
+      <c r="CV7">
+        <v>10.544084941627</v>
       </c>
     </row>
   </sheetData>
